--- a/Finite State Machine Table.xlsx
+++ b/Finite State Machine Table.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
